--- a/stud_data/ST1.xlsx
+++ b/stud_data/ST1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,26 @@
           <t>07-04-2025 Time</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>09-04-2025 Status</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>09-04-2025 Time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>10-04-2025 Status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>10-04-2025 Time</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -484,6 +504,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -509,6 +549,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -534,6 +594,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -559,6 +639,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -584,6 +684,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -609,6 +729,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -634,6 +774,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -659,6 +819,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -684,6 +864,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -709,6 +909,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -734,6 +954,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -759,6 +999,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -784,6 +1044,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -809,6 +1089,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -834,6 +1134,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -859,6 +1179,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -884,6 +1224,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -909,6 +1269,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -934,6 +1314,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -959,6 +1359,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -984,6 +1404,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1005,6 +1445,26 @@
         </is>
       </c>
       <c r="E23" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
